--- a/static/excel/batch_template_en-us.xlsx
+++ b/static/excel/batch_template_en-us.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="-29960" yWindow="-340" windowWidth="25600" windowHeight="14560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="587">
   <si>
     <r>
       <t>Salesperson Username</t>
@@ -2056,38 +2056,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>weixin_indirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipay_overseas_pre-authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixin_indirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>weixin_direct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weixin_indirect_overseas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin_indirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin_ronghe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPS_hk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alipay_overseas_pre-authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin_indirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin_direct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alipay_overseas_no_pre-authorization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2112,19 +2096,7 @@
     <t>alipay_overseas5</t>
   </si>
   <si>
-    <t>weixin_hk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alipay_overseas_no_pre-authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alipay_overseas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unionpay_hk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2144,10 +2116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alipay_hongkong_online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Merchant Name</t>
     </r>
@@ -2228,7 +2196,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alipay_hongkong_offline</t>
+    <t>WeChat $</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat cross-border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat Fusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Hong Kong offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Hong Kong online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat Directly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat Hong Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong Unionpay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat Public Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Hong Kong Direct online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Hong Kong Direct offline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2728,8 +2740,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2768,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>538</v>
@@ -2789,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>541</v>
@@ -2801,16 +2813,16 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>539</v>
@@ -11385,15 +11397,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
@@ -11442,34 +11454,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>567</v>
-      </c>
       <c r="K2" s="19" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -11477,23 +11489,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K3" s="19"/>
     </row>
@@ -11502,10 +11514,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -11514,7 +11526,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K4" s="19"/>
     </row>
@@ -11523,7 +11535,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -11533,7 +11545,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -11542,7 +11554,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -11552,7 +11564,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K6" s="19"/>
     </row>
@@ -11561,7 +11573,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -11578,7 +11590,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -11586,7 +11598,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -11594,7 +11606,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -11602,7 +11614,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>574</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/batch_template_en-us.xlsx
+++ b/static/excel/batch_template_en-us.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beibei/Desktop/excel&amp;photo-model/hk/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beibei/Desktop/excel&amp;photo-model/hk/signup/merchant/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29960" yWindow="-340" windowWidth="25600" windowHeight="14560" activeTab="2"/>
+    <workbookView xWindow="-27260" yWindow="360" windowWidth="25600" windowHeight="14560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="592">
   <si>
     <r>
       <t>Salesperson Username</t>
@@ -2096,10 +2096,6 @@
     <t>alipay_overseas5</t>
   </si>
   <si>
-    <t>alipay_overseas_no_pre-authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Industry</t>
     </r>
@@ -2241,6 +2237,30 @@
   </si>
   <si>
     <t>Alipay Hong Kong Direct offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Global Direct online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat cross-border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Singapore with Pre_Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NETSPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2741,7 +2761,7 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2780,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>538</v>
@@ -2801,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>541</v>
@@ -2813,16 +2833,16 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>539</v>
@@ -11397,16 +11417,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
@@ -11454,10 +11473,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>557</v>
@@ -11489,10 +11508,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -11514,10 +11533,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -11535,9 +11554,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="C5" s="19"/>
+        <v>577</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -11554,9 +11575,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="C6" s="19"/>
+        <v>578</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>591</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -11573,7 +11596,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -11590,7 +11613,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -11598,7 +11621,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -11606,7 +11629,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -11614,7 +11637,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -11622,7 +11645,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -11630,6 +11653,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>586</v>
       </c>
     </row>
